--- a/masterProject/Cases_simplified_model.xlsx
+++ b/masterProject/Cases_simplified_model.xlsx
@@ -216,6 +216,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -387,10 +388,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AQ3"/>
+  <dimension ref="A1:AQ4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U4" activeCellId="0" sqref="U4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -726,7 +727,7 @@
         <v>800</v>
       </c>
       <c r="U3" s="0" t="n">
-        <v>870</v>
+        <v>850</v>
       </c>
       <c r="V3" s="0" t="n">
         <v>200</v>
@@ -793,6 +794,14 @@
       </c>
       <c r="AQ3" s="0" t="n">
         <v>2800</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U4" s="0" t="n">
+        <v>870</v>
       </c>
     </row>
   </sheetData>
@@ -1003,7 +1012,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/masterProject/Cases_simplified_model.xlsx
+++ b/masterProject/Cases_simplified_model.xlsx
@@ -10,13 +10,14 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="106">
   <si>
     <t>comments</t>
   </si>
@@ -190,6 +191,138 @@
   </si>
   <si>
     <t>base case</t>
+  </si>
+  <si>
+    <t>m_fuel_c</t>
+  </si>
+  <si>
+    <t>qh2o_c</t>
+  </si>
+  <si>
+    <t>q_fuel_c</t>
+  </si>
+  <si>
+    <t>q_fm_c</t>
+  </si>
+  <si>
+    <t>Q_c</t>
+  </si>
+  <si>
+    <t>Qcomb</t>
+  </si>
+  <si>
+    <t>Qcorr</t>
+  </si>
+  <si>
+    <t>Xflue</t>
+  </si>
+  <si>
+    <t>m_fuel_g</t>
+  </si>
+  <si>
+    <t>q_h2o_g</t>
+  </si>
+  <si>
+    <t>q_fuel_g</t>
+  </si>
+  <si>
+    <t>q_steam_g</t>
+  </si>
+  <si>
+    <t>q_charconv</t>
+  </si>
+  <si>
+    <t>Q_g</t>
+  </si>
+  <si>
+    <t>S_c</t>
+  </si>
+  <si>
+    <t>sink_c</t>
+  </si>
+  <si>
+    <t>S_g</t>
+  </si>
+  <si>
+    <t>sink_g</t>
+  </si>
+  <si>
+    <t>T_c_min</t>
+  </si>
+  <si>
+    <t>T_c_max</t>
+  </si>
+  <si>
+    <t>T_c_avg</t>
+  </si>
+  <si>
+    <t>T_g_min</t>
+  </si>
+  <si>
+    <t>T_g_max</t>
+  </si>
+  <si>
+    <t>T_g_avg</t>
+  </si>
+  <si>
+    <t>v_min</t>
+  </si>
+  <si>
+    <t>v_max</t>
+  </si>
+  <si>
+    <t>v_avg</t>
+  </si>
+  <si>
+    <t>kg/s</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>TS</t>
+  </si>
+  <si>
+    <t>daf</t>
+  </si>
+  <si>
+    <t>kg/mol</t>
+  </si>
+  <si>
+    <t>coeff</t>
+  </si>
+  <si>
+    <t>mol/kgdaf</t>
+  </si>
+  <si>
+    <t>mol O/kg_daf</t>
+  </si>
+  <si>
+    <t>Nm3_O2/kg_daf</t>
+  </si>
+  <si>
+    <t>Nm3_air/kg_daf</t>
+  </si>
+  <si>
+    <t>aska</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>LHV</t>
   </si>
   <si>
     <t>Correllerade inputs:</t>
@@ -216,7 +349,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -234,7 +366,7 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -244,7 +376,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF99FF66"/>
-        <bgColor rgb="FF99CC00"/>
+        <bgColor rgb="FF99FF99"/>
       </patternFill>
     </fill>
     <fill>
@@ -257,6 +389,30 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99FF99"/>
+        <bgColor rgb="FF99FF66"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB2B2B2"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6666"/>
+        <bgColor rgb="FFFF6600"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00CCFF"/>
+        <bgColor rgb="FF33CCCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -322,7 +478,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -368,6 +524,34 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -396,14 +580,14 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFB2B2B2"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FFFF6666"/>
       <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
@@ -416,7 +600,7 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF99FF66"/>
+      <rgbColor rgb="FF99FF99"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
@@ -424,7 +608,7 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FF99FF66"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
@@ -451,7 +635,7 @@
   <dimension ref="A1:AO4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
+      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -801,7 +985,7 @@
         <v>10</v>
       </c>
       <c r="AA3" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AB3" s="0" t="n">
         <v>0.89</v>
@@ -870,193 +1054,181 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I26" activeCellId="0" sqref="I26"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5714285714286"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="B1" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>40.58</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>16.03</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>31.54</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>8.31</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="L3" s="0" t="n">
-        <v>0.2622875</v>
-      </c>
-      <c r="M3" s="0" t="n">
-        <v>0.703075</v>
-      </c>
-      <c r="N3" s="0" t="n">
-        <v>0.0391125</v>
-      </c>
-      <c r="O3" s="0" t="n">
-        <v>20.50125</v>
-      </c>
-      <c r="P3" s="0" t="n">
-        <v>19.25125</v>
-      </c>
-      <c r="Q3" s="0" t="n">
-        <v>52.675</v>
-      </c>
-      <c r="R3" s="0" t="n">
-        <v>5.7375</v>
-      </c>
-      <c r="S3" s="0" t="n">
-        <v>37.625</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="C1" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>36.32</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>20.48</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>28.65</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>9.94</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="D1" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>27.51</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>28.25</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>0.53</v>
+      <c r="E1" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="T1" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="U1" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="X1" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y1" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z1" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA1" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="S2" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="T2" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="U2" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="V2" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="W2" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="X2" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y2" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z2" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA2" s="0" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1068,4 +1240,442 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:P35"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="24.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="17" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="17" t="n">
+        <v>0.518</v>
+      </c>
+      <c r="C3" s="17" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="D3" s="17" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E3" s="17" t="n">
+        <f aca="false">Sheet3!G3/Sheet3!F3/2</f>
+        <v>0.996507692307692</v>
+      </c>
+      <c r="F3" s="17" t="n">
+        <f aca="false">Sheet3!C3/Sheet3!D3</f>
+        <v>43.3333333333333</v>
+      </c>
+      <c r="G3" s="17" t="n">
+        <v>86.364</v>
+      </c>
+      <c r="H3" s="17" t="n">
+        <v>0.967821</v>
+      </c>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="17" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="C4" s="17" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="D4" s="17" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E4" s="17" t="n">
+        <f aca="false">Sheet3!G4/Sheet3!F4/2</f>
+        <v>0.250091666666667</v>
+      </c>
+      <c r="F4" s="17" t="n">
+        <f aca="false">Sheet3!C4/Sheet3!D4</f>
+        <v>60</v>
+      </c>
+      <c r="G4" s="17" t="n">
+        <v>30.011</v>
+      </c>
+      <c r="H4" s="17" t="n">
+        <v>0.336309</v>
+      </c>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="17" t="n">
+        <v>0.381</v>
+      </c>
+      <c r="C5" s="17" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="D5" s="17" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E5" s="17" t="n">
+        <f aca="false">Sheet3!G5/Sheet3!F5/2</f>
+        <v>-0.501494736842105</v>
+      </c>
+      <c r="F5" s="17" t="n">
+        <f aca="false">Sheet3!C5/Sheet3!D5</f>
+        <v>23.75</v>
+      </c>
+      <c r="G5" s="17" t="n">
+        <v>-23.821</v>
+      </c>
+      <c r="H5" s="17" t="n">
+        <v>-0.26694</v>
+      </c>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="17" t="n">
+        <v>0.0054</v>
+      </c>
+      <c r="C6" s="17" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D6" s="17" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="E6" s="17" t="n">
+        <f aca="false">Sheet3!G6/Sheet3!F6/2</f>
+        <v>0.2702</v>
+      </c>
+      <c r="F6" s="17" t="n">
+        <f aca="false">Sheet3!C6/Sheet3!D6</f>
+        <v>0.714285714285714</v>
+      </c>
+      <c r="G6" s="17" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="H6" s="17" t="n">
+        <v>0.004324</v>
+      </c>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="17" t="n">
+        <v>0.0009</v>
+      </c>
+      <c r="C7" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="17" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="E7" s="17" t="e">
+        <f aca="false">Sheet3!G7/Sheet3!F7/2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F7" s="17" t="n">
+        <f aca="false">Sheet3!C7/Sheet3!D7</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="17" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="H7" s="17" t="n">
+        <v>0.000631</v>
+      </c>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="17" t="n">
+        <v>19.738</v>
+      </c>
+      <c r="C8" s="17" t="n">
+        <v>20.456</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="17" t="n">
+        <v>92.995</v>
+      </c>
+      <c r="H9" s="17" t="n">
+        <v>1.042139</v>
+      </c>
+      <c r="I9" s="17" t="n">
+        <v>4.962569</v>
+      </c>
+      <c r="J9" s="17" t="n">
+        <v>6.38568</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F21" s="0" t="n">
+        <v>0.2622875</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>0.703075</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>0.0391125</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>20.50125</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>19.25125</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>52.675</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <v>5.7375</v>
+      </c>
+      <c r="M21" s="0" t="n">
+        <v>37.625</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>40.58</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>16.03</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>8.31</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I33" s="0" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="J33" s="0" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="K33" s="0" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>36.32</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>20.48</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>28.65</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>9.94</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="J34" s="0" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="K34" s="0" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>27.51</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>25.92</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>28.25</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="J35" s="0" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="K35" s="0" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/masterProject/Cases_simplified_model.xlsx
+++ b/masterProject/Cases_simplified_model.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
   <si>
     <t>comments</t>
   </si>
@@ -94,13 +94,16 @@
     <t>Tfuel</t>
   </si>
   <si>
+    <t>T_whole</t>
+  </si>
+  <si>
+    <t>Xbed</t>
+  </si>
+  <si>
     <t>P_gas</t>
   </si>
   <si>
-    <t>P_heat</t>
-  </si>
-  <si>
-    <t>nboil</t>
+    <t>P_fuel</t>
   </si>
   <si>
     <t>xH2O_G_wet</t>
@@ -349,6 +352,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -632,10 +636,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="A1:AP4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AD1" activeCellId="0" sqref="AD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -648,11 +652,11 @@
     <col collapsed="false" hidden="false" max="13" min="13" style="1" width="11.5714285714286"/>
     <col collapsed="false" hidden="false" max="19" min="14" style="0" width="11.5714285714286"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="2" width="11.5714285714286"/>
-    <col collapsed="false" hidden="false" max="37" min="21" style="0" width="11.5714285714286"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="12.8622448979592"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="11.5714285714286"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="14.1479591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="41" style="0" width="11.5714285714286"/>
+    <col collapsed="false" hidden="false" max="38" min="21" style="0" width="11.5714285714286"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="12.8622448979592"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="11.5714285714286"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="14.1479591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="42" style="0" width="11.5714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -779,121 +783,124 @@
       <c r="AO1" s="0" t="s">
         <v>40</v>
       </c>
+      <c r="AP1" s="0" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S2" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T2" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U2" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V2" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W2" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="X2" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Y2" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Z2" s="0" t="s">
         <v>50</v>
       </c>
       <c r="AA2" s="0" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AB2" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AC2" s="0" t="s">
         <v>51</v>
       </c>
       <c r="AD2" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AE2" s="0" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AF2" s="0" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AG2" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH2" s="0" t="s">
         <v>53</v>
       </c>
       <c r="AI2" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AJ2" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AK2" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AL2" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AM2" s="0" t="s">
         <v>54</v>
@@ -904,10 +911,13 @@
       <c r="AO2" s="0" t="s">
         <v>56</v>
       </c>
+      <c r="AP2" s="0" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -982,22 +992,22 @@
         <v>40</v>
       </c>
       <c r="Z3" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="AA3" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AB3" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="AA3" s="0" t="n">
+      <c r="AC3" s="0" t="n">
         <v>70</v>
-      </c>
-      <c r="AB3" s="0" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="AC3" s="0" t="n">
-        <v>0.55</v>
       </c>
       <c r="AD3" s="0" t="n">
         <v>0.55</v>
       </c>
       <c r="AE3" s="0" t="n">
-        <v>1.2</v>
+        <v>0.55</v>
       </c>
       <c r="AF3" s="0" t="n">
         <v>1.2</v>
@@ -1006,27 +1016,30 @@
         <v>1.2</v>
       </c>
       <c r="AH3" s="0" t="n">
-        <v>0.65</v>
+        <v>1.2</v>
       </c>
       <c r="AI3" s="0" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AJ3" s="0" t="n">
         <v>2.6</v>
       </c>
-      <c r="AJ3" s="0" t="n">
+      <c r="AK3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="AK3" s="0" t="n">
-        <v>0.5</v>
-      </c>
       <c r="AL3" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AM3" s="0" t="n">
         <v>0.15</v>
       </c>
-      <c r="AM3" s="0" t="n">
+      <c r="AN3" s="0" t="n">
         <v>0.02</v>
       </c>
-      <c r="AN3" s="0" t="n">
+      <c r="AO3" s="0" t="n">
         <v>0.525</v>
       </c>
-      <c r="AO3" s="0" t="n">
+      <c r="AP3" s="0" t="n">
         <v>2610</v>
       </c>
     </row>
@@ -1067,168 +1080,168 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O1" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P1" s="13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q1" s="13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R1" s="13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S1" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T1" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U1" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V1" s="14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W1" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X1" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y1" s="15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Z1" s="15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA1" s="15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="S2" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="T2" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="U2" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="V2" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="W2" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="X2" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="R2" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="S2" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="T2" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="U2" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="V2" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="W2" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="X2" s="0" t="s">
-        <v>49</v>
-      </c>
       <c r="Y2" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Z2" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AA2" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1260,33 +1273,33 @@
   <sheetData>
     <row r="1" customFormat="false" ht="24.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B2" s="17" t="n">
         <v>0.035</v>
@@ -1302,7 +1315,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="16" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B3" s="17" t="n">
         <v>0.518</v>
@@ -1332,7 +1345,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="16" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B4" s="17" t="n">
         <v>0.06</v>
@@ -1362,7 +1375,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B5" s="17" t="n">
         <v>0.381</v>
@@ -1392,7 +1405,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B6" s="17" t="n">
         <v>0.0054</v>
@@ -1422,7 +1435,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="16" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B7" s="17" t="n">
         <v>0.0009</v>
@@ -1452,7 +1465,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B8" s="17" t="n">
         <v>19.738</v>
@@ -1541,7 +1554,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1575,7 +1588,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>40.58</v>
@@ -1607,7 +1620,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>36.32</v>
@@ -1639,7 +1652,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>27.51</v>

--- a/masterProject/Cases_simplified_model.xlsx
+++ b/masterProject/Cases_simplified_model.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="114">
   <si>
     <t>comments</t>
   </si>
@@ -25,6 +25,42 @@
     <t>case_index</t>
   </si>
   <si>
+    <t>P_gas</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>X_vola_mois</t>
+  </si>
+  <si>
+    <t>xH2O_G_wet</t>
+  </si>
+  <si>
+    <t>Tsteam</t>
+  </si>
+  <si>
+    <t>L_chamber</t>
+  </si>
+  <si>
+    <t>W_chamber</t>
+  </si>
+  <si>
+    <t>H_gap</t>
+  </si>
+  <si>
+    <t>P_fuel</t>
+  </si>
+  <si>
+    <t>TC</t>
+  </si>
+  <si>
+    <t>wall_thickness</t>
+  </si>
+  <si>
+    <t>u_air</t>
+  </si>
+  <si>
     <t>gas_H2</t>
   </si>
   <si>
@@ -64,268 +100,253 @@
     <t>y_ash</t>
   </si>
   <si>
+    <t>fuel_LHV</t>
+  </si>
+  <si>
+    <t>fuel_C</t>
+  </si>
+  <si>
+    <t>fuel_H</t>
+  </si>
+  <si>
+    <t>fuel_O</t>
+  </si>
+  <si>
+    <t>TG</t>
+  </si>
+  <si>
+    <t>Tair</t>
+  </si>
+  <si>
+    <t>Tfuel</t>
+  </si>
+  <si>
+    <t>T_whole</t>
+  </si>
+  <si>
+    <t>Xbed</t>
+  </si>
+  <si>
+    <t>xH2O_C_wet</t>
+  </si>
+  <si>
+    <t>ER</t>
+  </si>
+  <si>
+    <t>u_steam</t>
+  </si>
+  <si>
+    <t>H_bed</t>
+  </si>
+  <si>
+    <t>porosity</t>
+  </si>
+  <si>
+    <t>rho_solid</t>
+  </si>
+  <si>
+    <t>-- units</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>m2/s</t>
+  </si>
+  <si>
+    <t>kg/kg wet</t>
+  </si>
+  <si>
+    <t>deg C</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>m/s</t>
+  </si>
+  <si>
+    <t>% vol</t>
+  </si>
+  <si>
+    <t>kg/kgdaf</t>
+  </si>
+  <si>
+    <t>g/Nm3 cg</t>
+  </si>
+  <si>
+    <t>kg/kg daf</t>
+  </si>
+  <si>
+    <t>MJ/kg daf</t>
+  </si>
+  <si>
+    <t>% mass</t>
+  </si>
+  <si>
+    <t>void fraction</t>
+  </si>
+  <si>
+    <t>kg/m3</t>
+  </si>
+  <si>
+    <t>base case</t>
+  </si>
+  <si>
+    <t>higher comb. Temp</t>
+  </si>
+  <si>
+    <t>lower comb. Temp</t>
+  </si>
+  <si>
+    <t>Thick wall</t>
+  </si>
+  <si>
+    <t>low load boiler</t>
+  </si>
+  <si>
+    <t>low velocity</t>
+  </si>
+  <si>
+    <t>higher gas yield</t>
+  </si>
+  <si>
+    <t>m_fuel_c</t>
+  </si>
+  <si>
+    <t>qh2o_c</t>
+  </si>
+  <si>
+    <t>q_fuel_c</t>
+  </si>
+  <si>
+    <t>q_fm_c</t>
+  </si>
+  <si>
+    <t>Q_c</t>
+  </si>
+  <si>
+    <t>Qcomb</t>
+  </si>
+  <si>
+    <t>Qcorr</t>
+  </si>
+  <si>
+    <t>Xflue</t>
+  </si>
+  <si>
+    <t>m_fuel_g</t>
+  </si>
+  <si>
+    <t>q_h2o_g</t>
+  </si>
+  <si>
+    <t>q_fuel_g</t>
+  </si>
+  <si>
+    <t>q_steam_g</t>
+  </si>
+  <si>
+    <t>q_charconv</t>
+  </si>
+  <si>
+    <t>Q_g</t>
+  </si>
+  <si>
+    <t>S_c</t>
+  </si>
+  <si>
+    <t>sink_c</t>
+  </si>
+  <si>
+    <t>S_g</t>
+  </si>
+  <si>
+    <t>sink_g</t>
+  </si>
+  <si>
+    <t>T_c_min</t>
+  </si>
+  <si>
+    <t>T_c_max</t>
+  </si>
+  <si>
+    <t>T_c_avg</t>
+  </si>
+  <si>
+    <t>T_g_min</t>
+  </si>
+  <si>
+    <t>T_g_max</t>
+  </si>
+  <si>
+    <t>T_g_avg</t>
+  </si>
+  <si>
+    <t>v_min</t>
+  </si>
+  <si>
+    <t>v_max</t>
+  </si>
+  <si>
+    <t>v_avg</t>
+  </si>
+  <si>
+    <t>kg/s</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>TS</t>
+  </si>
+  <si>
+    <t>daf</t>
+  </si>
+  <si>
+    <t>kg/mol</t>
+  </si>
+  <si>
+    <t>coeff</t>
+  </si>
+  <si>
+    <t>mol/kgdaf</t>
+  </si>
+  <si>
+    <t>mol O/kg_daf</t>
+  </si>
+  <si>
+    <t>Nm3_O2/kg_daf</t>
+  </si>
+  <si>
+    <t>Nm3_air/kg_daf</t>
+  </si>
+  <si>
+    <t>aska</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>LHV</t>
+  </si>
+  <si>
     <t>fuel_HHV</t>
-  </si>
-  <si>
-    <t>fuel_LHV</t>
-  </si>
-  <si>
-    <t>fuel_C</t>
-  </si>
-  <si>
-    <t>fuel_H</t>
-  </si>
-  <si>
-    <t>fuel_O</t>
-  </si>
-  <si>
-    <t>TG</t>
-  </si>
-  <si>
-    <t>TC</t>
-  </si>
-  <si>
-    <t>Tair</t>
-  </si>
-  <si>
-    <t>Tsteam</t>
-  </si>
-  <si>
-    <t>Tfuel</t>
-  </si>
-  <si>
-    <t>T_whole</t>
-  </si>
-  <si>
-    <t>Xbed</t>
-  </si>
-  <si>
-    <t>P_gas</t>
-  </si>
-  <si>
-    <t>P_fuel</t>
-  </si>
-  <si>
-    <t>xH2O_G_wet</t>
-  </si>
-  <si>
-    <t>xH2O_C_wet</t>
-  </si>
-  <si>
-    <t>ER</t>
-  </si>
-  <si>
-    <t>u_air</t>
-  </si>
-  <si>
-    <t>u_steam</t>
-  </si>
-  <si>
-    <t>H_bed</t>
-  </si>
-  <si>
-    <t>L_chamber</t>
-  </si>
-  <si>
-    <t>W_chamber</t>
-  </si>
-  <si>
-    <t>H_gap</t>
-  </si>
-  <si>
-    <t>wall_thickness</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>porosity</t>
-  </si>
-  <si>
-    <t>rho_solid</t>
-  </si>
-  <si>
-    <t>-- units</t>
-  </si>
-  <si>
-    <t>--</t>
-  </si>
-  <si>
-    <t>% vol</t>
-  </si>
-  <si>
-    <t>kg/kgdaf</t>
-  </si>
-  <si>
-    <t>g/Nm3 cg</t>
-  </si>
-  <si>
-    <t>kg/kg daf</t>
-  </si>
-  <si>
-    <t>MJ/kg daf</t>
-  </si>
-  <si>
-    <t>% mass</t>
-  </si>
-  <si>
-    <t>deg C</t>
-  </si>
-  <si>
-    <t>MW</t>
-  </si>
-  <si>
-    <t>kg/kg wet</t>
-  </si>
-  <si>
-    <t>m/s</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>m2/s</t>
-  </si>
-  <si>
-    <t>void fraction</t>
-  </si>
-  <si>
-    <t>kg/m3</t>
-  </si>
-  <si>
-    <t>base case</t>
-  </si>
-  <si>
-    <t>m_fuel_c</t>
-  </si>
-  <si>
-    <t>qh2o_c</t>
-  </si>
-  <si>
-    <t>q_fuel_c</t>
-  </si>
-  <si>
-    <t>q_fm_c</t>
-  </si>
-  <si>
-    <t>Q_c</t>
-  </si>
-  <si>
-    <t>Qcomb</t>
-  </si>
-  <si>
-    <t>Qcorr</t>
-  </si>
-  <si>
-    <t>Xflue</t>
-  </si>
-  <si>
-    <t>m_fuel_g</t>
-  </si>
-  <si>
-    <t>q_h2o_g</t>
-  </si>
-  <si>
-    <t>q_fuel_g</t>
-  </si>
-  <si>
-    <t>q_steam_g</t>
-  </si>
-  <si>
-    <t>q_charconv</t>
-  </si>
-  <si>
-    <t>Q_g</t>
-  </si>
-  <si>
-    <t>S_c</t>
-  </si>
-  <si>
-    <t>sink_c</t>
-  </si>
-  <si>
-    <t>S_g</t>
-  </si>
-  <si>
-    <t>sink_g</t>
-  </si>
-  <si>
-    <t>T_c_min</t>
-  </si>
-  <si>
-    <t>T_c_max</t>
-  </si>
-  <si>
-    <t>T_c_avg</t>
-  </si>
-  <si>
-    <t>T_g_min</t>
-  </si>
-  <si>
-    <t>T_g_max</t>
-  </si>
-  <si>
-    <t>T_g_avg</t>
-  </si>
-  <si>
-    <t>v_min</t>
-  </si>
-  <si>
-    <t>v_max</t>
-  </si>
-  <si>
-    <t>v_avg</t>
-  </si>
-  <si>
-    <t>kg/s</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>TS</t>
-  </si>
-  <si>
-    <t>daf</t>
-  </si>
-  <si>
-    <t>kg/mol</t>
-  </si>
-  <si>
-    <t>coeff</t>
-  </si>
-  <si>
-    <t>mol/kgdaf</t>
-  </si>
-  <si>
-    <t>mol O/kg_daf</t>
-  </si>
-  <si>
-    <t>Nm3_O2/kg_daf</t>
-  </si>
-  <si>
-    <t>Nm3_air/kg_daf</t>
-  </si>
-  <si>
-    <t>aska</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>LHV</t>
   </si>
   <si>
     <t>Correllerade inputs:</t>
@@ -344,10 +365,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -369,13 +391,49 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -420,12 +478,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -444,6 +517,26 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
       <right/>
       <top/>
       <bottom/>
@@ -457,7 +550,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -481,57 +574,111 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="33">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="5" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -544,6 +691,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -551,22 +706,24 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Excel Built-in Good" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Note" xfId="21" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -579,7 +736,7 @@
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF006100"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
@@ -589,7 +746,7 @@
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF99FF99"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF6666"/>
       <rgbColor rgb="FF0066CC"/>
@@ -604,7 +761,7 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF99FF99"/>
+      <rgbColor rgb="FFC6EFCE"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
@@ -622,7 +779,7 @@
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF9C5700"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -636,15 +793,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AP4"/>
+  <dimension ref="A1:AP9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AD1" activeCellId="0" sqref="AD1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Z1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AJ3" activeCellId="0" sqref="AJ3:AJ9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.5714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.765306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.5714285714286"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="11.5714285714286"/>
     <col collapsed="false" hidden="false" max="9" min="4" style="0" width="11.5714285714286"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="2" width="11.5714285714286"/>
@@ -652,14 +810,14 @@
     <col collapsed="false" hidden="false" max="13" min="13" style="1" width="11.5714285714286"/>
     <col collapsed="false" hidden="false" max="19" min="14" style="0" width="11.5714285714286"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="2" width="11.5714285714286"/>
-    <col collapsed="false" hidden="false" max="38" min="21" style="0" width="11.5714285714286"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="12.8622448979592"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="11.5714285714286"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="14.1479591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="42" style="0" width="11.5714285714286"/>
+    <col collapsed="false" hidden="false" max="40" min="21" style="0" width="11.5714285714286"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="12.8622448979592"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="11.5714285714286"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="14.1479591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="44" style="0" width="11.5714285714286"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -669,88 +827,88 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="S1" s="9" t="s">
         <v>18</v>
       </c>
       <c r="T1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="U1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="V1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="0" t="s">
+      <c r="W1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="0" t="s">
+      <c r="X1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="0" t="s">
+      <c r="Y1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="0" t="s">
+      <c r="Z1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="0" t="s">
+      <c r="AA1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="0" t="s">
+      <c r="AB1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="0" t="s">
+      <c r="AC1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="0" t="s">
+      <c r="AD1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="0" t="s">
+      <c r="AE1" s="15" t="s">
         <v>30</v>
       </c>
       <c r="AF1" s="0" t="s">
@@ -787,126 +945,126 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>42</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="M2" s="10" t="s">
+      <c r="L2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>47</v>
+      <c r="M2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="O2" s="16" t="s">
+        <v>50</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S2" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="T2" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="T2" s="0" t="s">
+        <v>50</v>
       </c>
       <c r="U2" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="V2" s="0" t="s">
+      <c r="V2" s="17" t="s">
         <v>50</v>
       </c>
       <c r="W2" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="X2" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y2" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z2" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
+      </c>
+      <c r="Y2" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z2" s="19" t="s">
+        <v>53</v>
       </c>
       <c r="AA2" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB2" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC2" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD2" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE2" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF2" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG2" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH2" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI2" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ2" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC2" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD2" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="AE2" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF2" s="0" t="s">
+      <c r="AK2" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL2" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="AG2" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="AH2" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="AI2" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ2" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK2" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="AL2" s="0" t="s">
-        <v>54</v>
-      </c>
       <c r="AM2" s="0" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="AN2" s="0" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AO2" s="0" t="s">
         <v>56</v>
@@ -915,126 +1073,126 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>58</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C3" s="10" t="n">
-        <v>36.32</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>20.48</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>28.65</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>9.94</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="J3" s="11" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="K3" s="0" t="n">
+      <c r="C3" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E3" s="3" t="n">
         <v>0.7</v>
       </c>
-      <c r="L3" s="0" t="n">
+      <c r="F3" s="3" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>300</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="L3" s="5" t="n">
+        <v>850</v>
+      </c>
+      <c r="M3" s="6" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="N3" s="7" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O3" s="20" t="n">
+        <v>27.24382</v>
+      </c>
+      <c r="P3" s="20" t="n">
+        <v>29.08767</v>
+      </c>
+      <c r="Q3" s="20" t="n">
+        <v>23.77501</v>
+      </c>
+      <c r="R3" s="20" t="n">
+        <v>13.2707</v>
+      </c>
+      <c r="S3" s="20" t="n">
+        <v>0.802764</v>
+      </c>
+      <c r="T3" s="20" t="n">
+        <v>4.778957</v>
+      </c>
+      <c r="U3" s="20" t="n">
+        <v>0.263407</v>
+      </c>
+      <c r="V3" s="20" t="n">
+        <v>0.760954</v>
+      </c>
+      <c r="W3" s="20" t="n">
+        <v>0.567263</v>
+      </c>
+      <c r="X3" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="M3" s="10" t="n">
+      <c r="Y3" s="21" t="n">
         <v>0.2622875</v>
       </c>
-      <c r="N3" s="0" t="n">
+      <c r="Z3" s="22" t="n">
         <v>0.703075</v>
       </c>
-      <c r="O3" s="0" t="n">
+      <c r="AA3" s="23" t="n">
         <v>0.0391125</v>
       </c>
-      <c r="P3" s="0" t="n">
+      <c r="AB3" s="22" t="n">
         <v>20.50125</v>
       </c>
-      <c r="Q3" s="0" t="n">
-        <v>19.25125</v>
-      </c>
-      <c r="R3" s="0" t="n">
+      <c r="AC3" s="23" t="n">
         <v>52.675</v>
       </c>
-      <c r="S3" s="0" t="n">
+      <c r="AD3" s="23" t="n">
         <v>5.7375</v>
       </c>
-      <c r="T3" s="11" t="n">
+      <c r="AE3" s="24" t="n">
         <v>37.625</v>
       </c>
-      <c r="U3" s="0" t="n">
+      <c r="AF3" s="0" t="n">
         <v>800</v>
       </c>
-      <c r="V3" s="0" t="n">
-        <v>850</v>
-      </c>
-      <c r="W3" s="0" t="n">
+      <c r="AG3" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="X3" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="Y3" s="0" t="n">
+      <c r="AH3" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="Z3" s="0" t="n">
+      <c r="AI3" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="AA3" s="0" t="n">
+      <c r="AJ3" s="0" t="n">
         <v>0.6</v>
       </c>
-      <c r="AB3" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC3" s="0" t="n">
-        <v>70</v>
-      </c>
-      <c r="AD3" s="0" t="n">
+      <c r="AK3" s="0" t="n">
         <v>0.55</v>
       </c>
-      <c r="AE3" s="0" t="n">
+      <c r="AL3" s="0" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM3" s="0" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AN3" s="0" t="n">
         <v>0.55</v>
-      </c>
-      <c r="AF3" s="0" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AG3" s="0" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AH3" s="0" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AI3" s="0" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="AJ3" s="0" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AK3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL3" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AM3" s="0" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AN3" s="0" t="n">
-        <v>0.02</v>
       </c>
       <c r="AO3" s="0" t="n">
         <v>0.525</v>
@@ -1043,12 +1201,773 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>59</v>
+      </c>
       <c r="B4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="V4" s="0" t="n">
-        <v>870</v>
+      <c r="C4" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>300</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>860</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="N4" s="7" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O4" s="20" t="n">
+        <v>27.24382</v>
+      </c>
+      <c r="P4" s="20" t="n">
+        <v>29.08767</v>
+      </c>
+      <c r="Q4" s="20" t="n">
+        <v>23.77501</v>
+      </c>
+      <c r="R4" s="20" t="n">
+        <v>13.2707</v>
+      </c>
+      <c r="S4" s="20" t="n">
+        <v>0.802764</v>
+      </c>
+      <c r="T4" s="20" t="n">
+        <v>4.778957</v>
+      </c>
+      <c r="U4" s="20" t="n">
+        <v>0.263407</v>
+      </c>
+      <c r="V4" s="20" t="n">
+        <v>0.760954</v>
+      </c>
+      <c r="W4" s="20" t="n">
+        <v>0.567263</v>
+      </c>
+      <c r="X4" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="Y4" s="21" t="n">
+        <v>0.2622875</v>
+      </c>
+      <c r="Z4" s="22" t="n">
+        <v>0.703075</v>
+      </c>
+      <c r="AA4" s="23" t="n">
+        <v>0.0391125</v>
+      </c>
+      <c r="AB4" s="22" t="n">
+        <v>20.50125</v>
+      </c>
+      <c r="AC4" s="23" t="n">
+        <v>52.675</v>
+      </c>
+      <c r="AD4" s="23" t="n">
+        <v>5.7375</v>
+      </c>
+      <c r="AE4" s="24" t="n">
+        <v>37.625</v>
+      </c>
+      <c r="AF4" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="AG4" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="AH4" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI4" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="AJ4" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AK4" s="0" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AL4" s="0" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM4" s="0" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AN4" s="0" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AO4" s="0" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="AP4" s="0" t="n">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>300</v>
+      </c>
+      <c r="H5" s="3" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="I5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>840</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="N5" s="7" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O5" s="20" t="n">
+        <v>27.24382</v>
+      </c>
+      <c r="P5" s="20" t="n">
+        <v>29.08767</v>
+      </c>
+      <c r="Q5" s="20" t="n">
+        <v>23.77501</v>
+      </c>
+      <c r="R5" s="20" t="n">
+        <v>13.2707</v>
+      </c>
+      <c r="S5" s="20" t="n">
+        <v>0.802764</v>
+      </c>
+      <c r="T5" s="20" t="n">
+        <v>4.778957</v>
+      </c>
+      <c r="U5" s="20" t="n">
+        <v>0.263407</v>
+      </c>
+      <c r="V5" s="20" t="n">
+        <v>0.760954</v>
+      </c>
+      <c r="W5" s="20" t="n">
+        <v>0.567263</v>
+      </c>
+      <c r="X5" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="Y5" s="21" t="n">
+        <v>0.2622875</v>
+      </c>
+      <c r="Z5" s="22" t="n">
+        <v>0.703075</v>
+      </c>
+      <c r="AA5" s="23" t="n">
+        <v>0.0391125</v>
+      </c>
+      <c r="AB5" s="22" t="n">
+        <v>20.50125</v>
+      </c>
+      <c r="AC5" s="23" t="n">
+        <v>52.675</v>
+      </c>
+      <c r="AD5" s="23" t="n">
+        <v>5.7375</v>
+      </c>
+      <c r="AE5" s="24" t="n">
+        <v>37.625</v>
+      </c>
+      <c r="AF5" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="AG5" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="AH5" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI5" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="AJ5" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AK5" s="0" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AL5" s="0" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM5" s="0" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AN5" s="0" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AO5" s="0" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="AP5" s="0" t="n">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>300</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="I6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>850</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="N6" s="7" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O6" s="20" t="n">
+        <v>27.24382</v>
+      </c>
+      <c r="P6" s="20" t="n">
+        <v>29.08767</v>
+      </c>
+      <c r="Q6" s="20" t="n">
+        <v>23.77501</v>
+      </c>
+      <c r="R6" s="20" t="n">
+        <v>13.2707</v>
+      </c>
+      <c r="S6" s="20" t="n">
+        <v>0.802764</v>
+      </c>
+      <c r="T6" s="20" t="n">
+        <v>4.778957</v>
+      </c>
+      <c r="U6" s="20" t="n">
+        <v>0.263407</v>
+      </c>
+      <c r="V6" s="20" t="n">
+        <v>0.760954</v>
+      </c>
+      <c r="W6" s="20" t="n">
+        <v>0.567263</v>
+      </c>
+      <c r="X6" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="Y6" s="21" t="n">
+        <v>0.2622875</v>
+      </c>
+      <c r="Z6" s="22" t="n">
+        <v>0.703075</v>
+      </c>
+      <c r="AA6" s="23" t="n">
+        <v>0.0391125</v>
+      </c>
+      <c r="AB6" s="22" t="n">
+        <v>20.50125</v>
+      </c>
+      <c r="AC6" s="23" t="n">
+        <v>52.675</v>
+      </c>
+      <c r="AD6" s="23" t="n">
+        <v>5.7375</v>
+      </c>
+      <c r="AE6" s="24" t="n">
+        <v>37.625</v>
+      </c>
+      <c r="AF6" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="AG6" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="AH6" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI6" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="AJ6" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AK6" s="0" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AL6" s="0" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM6" s="0" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AN6" s="0" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AO6" s="0" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="AP6" s="0" t="n">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>300</v>
+      </c>
+      <c r="H7" s="3" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="I7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="K7" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>850</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="N7" s="7" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O7" s="20" t="n">
+        <v>27.24382</v>
+      </c>
+      <c r="P7" s="20" t="n">
+        <v>29.08767</v>
+      </c>
+      <c r="Q7" s="20" t="n">
+        <v>23.77501</v>
+      </c>
+      <c r="R7" s="20" t="n">
+        <v>13.2707</v>
+      </c>
+      <c r="S7" s="20" t="n">
+        <v>0.802764</v>
+      </c>
+      <c r="T7" s="20" t="n">
+        <v>4.778957</v>
+      </c>
+      <c r="U7" s="20" t="n">
+        <v>0.263407</v>
+      </c>
+      <c r="V7" s="20" t="n">
+        <v>0.760954</v>
+      </c>
+      <c r="W7" s="20" t="n">
+        <v>0.567263</v>
+      </c>
+      <c r="X7" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="Y7" s="21" t="n">
+        <v>0.2622875</v>
+      </c>
+      <c r="Z7" s="22" t="n">
+        <v>0.703075</v>
+      </c>
+      <c r="AA7" s="23" t="n">
+        <v>0.0391125</v>
+      </c>
+      <c r="AB7" s="22" t="n">
+        <v>20.50125</v>
+      </c>
+      <c r="AC7" s="23" t="n">
+        <v>52.675</v>
+      </c>
+      <c r="AD7" s="23" t="n">
+        <v>5.7375</v>
+      </c>
+      <c r="AE7" s="24" t="n">
+        <v>37.625</v>
+      </c>
+      <c r="AF7" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="AG7" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="AH7" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI7" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="AJ7" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AK7" s="0" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AL7" s="0" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM7" s="0" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AN7" s="0" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AO7" s="0" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="AP7" s="0" t="n">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>300</v>
+      </c>
+      <c r="H8" s="3" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="I8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="K8" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>850</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="N8" s="7" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="O8" s="20" t="n">
+        <v>27.24382</v>
+      </c>
+      <c r="P8" s="20" t="n">
+        <v>29.08767</v>
+      </c>
+      <c r="Q8" s="20" t="n">
+        <v>23.77501</v>
+      </c>
+      <c r="R8" s="20" t="n">
+        <v>13.2707</v>
+      </c>
+      <c r="S8" s="20" t="n">
+        <v>0.802764</v>
+      </c>
+      <c r="T8" s="20" t="n">
+        <v>4.778957</v>
+      </c>
+      <c r="U8" s="20" t="n">
+        <v>0.263407</v>
+      </c>
+      <c r="V8" s="20" t="n">
+        <v>0.760954</v>
+      </c>
+      <c r="W8" s="20" t="n">
+        <v>0.567263</v>
+      </c>
+      <c r="X8" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="Y8" s="21" t="n">
+        <v>0.2622875</v>
+      </c>
+      <c r="Z8" s="22" t="n">
+        <v>0.703075</v>
+      </c>
+      <c r="AA8" s="23" t="n">
+        <v>0.0391125</v>
+      </c>
+      <c r="AB8" s="22" t="n">
+        <v>20.50125</v>
+      </c>
+      <c r="AC8" s="23" t="n">
+        <v>52.675</v>
+      </c>
+      <c r="AD8" s="23" t="n">
+        <v>5.7375</v>
+      </c>
+      <c r="AE8" s="24" t="n">
+        <v>37.625</v>
+      </c>
+      <c r="AF8" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="AG8" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="AH8" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI8" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="AJ8" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AK8" s="0" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AL8" s="0" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM8" s="0" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AN8" s="0" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AO8" s="0" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="AP8" s="0" t="n">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>300</v>
+      </c>
+      <c r="H9" s="3" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="I9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="3" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="K9" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>850</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="N9" s="7" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O9" s="20" t="n">
+        <v>27.24382</v>
+      </c>
+      <c r="P9" s="20" t="n">
+        <v>29.08767</v>
+      </c>
+      <c r="Q9" s="20" t="n">
+        <v>23.77501</v>
+      </c>
+      <c r="R9" s="20" t="n">
+        <v>13.2707</v>
+      </c>
+      <c r="S9" s="20" t="n">
+        <v>0.802764</v>
+      </c>
+      <c r="T9" s="20" t="n">
+        <v>4.778957</v>
+      </c>
+      <c r="U9" s="20" t="n">
+        <v>0.263407</v>
+      </c>
+      <c r="V9" s="20" t="n">
+        <v>0.760954</v>
+      </c>
+      <c r="W9" s="20" t="n">
+        <f aca="false">0.567263*1.1</f>
+        <v>0.6239893</v>
+      </c>
+      <c r="X9" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="Y9" s="21" t="n">
+        <v>0.2622875</v>
+      </c>
+      <c r="Z9" s="22" t="n">
+        <v>0.703075</v>
+      </c>
+      <c r="AA9" s="23" t="n">
+        <v>0.0391125</v>
+      </c>
+      <c r="AB9" s="22" t="n">
+        <v>20.50125</v>
+      </c>
+      <c r="AC9" s="23" t="n">
+        <v>52.675</v>
+      </c>
+      <c r="AD9" s="23" t="n">
+        <v>5.7375</v>
+      </c>
+      <c r="AE9" s="24" t="n">
+        <v>37.625</v>
+      </c>
+      <c r="AF9" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="AG9" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="AH9" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI9" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="AJ9" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AK9" s="0" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AL9" s="0" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM9" s="0" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AN9" s="0" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AO9" s="0" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="AP9" s="0" t="n">
+        <v>2610</v>
       </c>
     </row>
   </sheetData>
@@ -1070,7 +1989,7 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="AJ3:AJ9 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1079,169 +1998,169 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G1" s="8" t="s">
+      <c r="A1" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="B1" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="C1" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="D1" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="E1" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="F1" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="G1" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="H1" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="I1" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="J1" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="K1" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="L1" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="M1" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="N1" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="O1" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="V1" s="14" t="s">
+      <c r="P1" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="W1" s="14" t="s">
+      <c r="Q1" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="X1" s="14" t="s">
+      <c r="R1" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="Y1" s="15" t="s">
+      <c r="S1" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="Z1" s="15" t="s">
+      <c r="T1" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="AA1" s="15" t="s">
+      <c r="U1" s="28" t="s">
         <v>85</v>
+      </c>
+      <c r="V1" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="W1" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="X1" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y1" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z1" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA1" s="29" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="S2" s="0" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="T2" s="0" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="U2" s="0" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="V2" s="0" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="W2" s="0" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="X2" s="0" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="Y2" s="0" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="Z2" s="0" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="AA2" s="0" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1263,7 +2182,7 @@
   <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
+      <selection pane="topLeft" activeCell="D21" activeCellId="1" sqref="AJ3:AJ9 D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1272,258 +2191,258 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="H1" s="16" t="s">
+      <c r="B1" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="C1" s="30" t="s">
         <v>95</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" s="17" t="n">
+      <c r="A2" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="20" t="n">
         <v>0.035</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" s="17" t="n">
+      <c r="A3" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="20" t="n">
         <v>0.518</v>
       </c>
-      <c r="C3" s="17" t="n">
+      <c r="C3" s="20" t="n">
         <v>0.52</v>
       </c>
-      <c r="D3" s="17" t="n">
+      <c r="D3" s="20" t="n">
         <v>0.012</v>
       </c>
-      <c r="E3" s="17" t="n">
+      <c r="E3" s="20" t="n">
         <f aca="false">Sheet3!G3/Sheet3!F3/2</f>
         <v>0.996507692307692</v>
       </c>
-      <c r="F3" s="17" t="n">
+      <c r="F3" s="20" t="n">
         <f aca="false">Sheet3!C3/Sheet3!D3</f>
         <v>43.3333333333333</v>
       </c>
-      <c r="G3" s="17" t="n">
+      <c r="G3" s="20" t="n">
         <v>86.364</v>
       </c>
-      <c r="H3" s="17" t="n">
+      <c r="H3" s="20" t="n">
         <v>0.967821</v>
       </c>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
     </row>
     <row r="4" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" s="17" t="n">
+      <c r="A4" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="20" t="n">
         <v>0.06</v>
       </c>
-      <c r="C4" s="17" t="n">
+      <c r="C4" s="20" t="n">
         <v>0.06</v>
       </c>
-      <c r="D4" s="17" t="n">
+      <c r="D4" s="20" t="n">
         <v>0.001</v>
       </c>
-      <c r="E4" s="17" t="n">
+      <c r="E4" s="20" t="n">
         <f aca="false">Sheet3!G4/Sheet3!F4/2</f>
         <v>0.250091666666667</v>
       </c>
-      <c r="F4" s="17" t="n">
+      <c r="F4" s="20" t="n">
         <f aca="false">Sheet3!C4/Sheet3!D4</f>
         <v>60</v>
       </c>
-      <c r="G4" s="17" t="n">
+      <c r="G4" s="20" t="n">
         <v>30.011</v>
       </c>
-      <c r="H4" s="17" t="n">
+      <c r="H4" s="20" t="n">
         <v>0.336309</v>
       </c>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
     </row>
     <row r="5" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="B5" s="17" t="n">
+      <c r="A5" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="20" t="n">
         <v>0.381</v>
       </c>
-      <c r="C5" s="17" t="n">
+      <c r="C5" s="20" t="n">
         <v>0.38</v>
       </c>
-      <c r="D5" s="17" t="n">
+      <c r="D5" s="20" t="n">
         <v>0.016</v>
       </c>
-      <c r="E5" s="17" t="n">
+      <c r="E5" s="20" t="n">
         <f aca="false">Sheet3!G5/Sheet3!F5/2</f>
         <v>-0.501494736842105</v>
       </c>
-      <c r="F5" s="17" t="n">
+      <c r="F5" s="20" t="n">
         <f aca="false">Sheet3!C5/Sheet3!D5</f>
         <v>23.75</v>
       </c>
-      <c r="G5" s="17" t="n">
+      <c r="G5" s="20" t="n">
         <v>-23.821</v>
       </c>
-      <c r="H5" s="17" t="n">
+      <c r="H5" s="20" t="n">
         <v>-0.26694</v>
       </c>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
     </row>
     <row r="6" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="B6" s="17" t="n">
+      <c r="A6" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="20" t="n">
         <v>0.0054</v>
       </c>
-      <c r="C6" s="17" t="n">
+      <c r="C6" s="20" t="n">
         <v>0.01</v>
       </c>
-      <c r="D6" s="17" t="n">
+      <c r="D6" s="20" t="n">
         <v>0.014</v>
       </c>
-      <c r="E6" s="17" t="n">
+      <c r="E6" s="20" t="n">
         <f aca="false">Sheet3!G6/Sheet3!F6/2</f>
         <v>0.2702</v>
       </c>
-      <c r="F6" s="17" t="n">
+      <c r="F6" s="20" t="n">
         <f aca="false">Sheet3!C6/Sheet3!D6</f>
         <v>0.714285714285714</v>
       </c>
-      <c r="G6" s="17" t="n">
+      <c r="G6" s="20" t="n">
         <v>0.386</v>
       </c>
-      <c r="H6" s="17" t="n">
+      <c r="H6" s="20" t="n">
         <v>0.004324</v>
       </c>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
     </row>
     <row r="7" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" s="17" t="n">
+      <c r="A7" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="20" t="n">
         <v>0.0009</v>
       </c>
-      <c r="C7" s="17" t="n">
+      <c r="C7" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="D7" s="17" t="n">
+      <c r="D7" s="20" t="n">
         <v>0.032</v>
       </c>
-      <c r="E7" s="17" t="e">
+      <c r="E7" s="20" t="e">
         <f aca="false">Sheet3!G7/Sheet3!F7/2</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F7" s="17" t="n">
+      <c r="F7" s="20" t="n">
         <f aca="false">Sheet3!C7/Sheet3!D7</f>
         <v>0</v>
       </c>
-      <c r="G7" s="17" t="n">
+      <c r="G7" s="20" t="n">
         <v>0.056</v>
       </c>
-      <c r="H7" s="17" t="n">
+      <c r="H7" s="20" t="n">
         <v>0.000631</v>
       </c>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
     </row>
     <row r="8" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="B8" s="17" t="n">
+      <c r="A8" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="20" t="n">
         <v>19.738</v>
       </c>
-      <c r="C8" s="17" t="n">
+      <c r="C8" s="20" t="n">
         <v>20.456</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
     </row>
     <row r="9" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="17" t="n">
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="20" t="n">
         <v>92.995</v>
       </c>
-      <c r="H9" s="17" t="n">
+      <c r="H9" s="20" t="n">
         <v>1.042139</v>
       </c>
-      <c r="I9" s="17" t="n">
+      <c r="I9" s="20" t="n">
         <v>4.962569</v>
       </c>
-      <c r="J9" s="17" t="n">
+      <c r="J9" s="20" t="n">
         <v>6.38568</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F20" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="L20" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="M20" s="8" t="s">
-        <v>19</v>
+      <c r="F20" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="J20" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="K20" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="L20" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="M20" s="25" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1554,41 +2473,41 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K32" s="4" t="s">
-        <v>10</v>
+      <c r="C32" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="I32" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="J32" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="K32" s="32" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>40.58</v>
@@ -1620,7 +2539,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>36.32</v>
@@ -1652,7 +2571,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>27.51</v>

--- a/masterProject/Cases_simplified_model.xlsx
+++ b/masterProject/Cases_simplified_model.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="353">
   <si>
     <t>comments</t>
   </si>
@@ -286,6 +286,27 @@
   </si>
   <si>
     <t>S_tot</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
   <si>
     <t>00000000</t>
@@ -2695,7 +2716,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A16:AA272"/>
+  <dimension ref="A2:AA272"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
@@ -2706,6 +2727,667 @@
     <col customWidth="1" max="1025" min="1" style="2" width="11.5204081632653"/>
   </cols>
   <sheetData>
+    <row r="2" spans="1:27">
+      <c r="B2" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="K2" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="L2" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="M2" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="N2" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="O2" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="P2" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q2" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="R2" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="S2" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="T2" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="U2" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="V2" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="W2" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="X2" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y2" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z2" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA2" s="23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
+      <c r="A3" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3.138450027714986</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.76835520322696</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4.447357560906194</v>
+      </c>
+      <c r="F3" t="n">
+        <v>12.31607181783052</v>
+      </c>
+      <c r="G3" t="n">
+        <v>32.53178458196367</v>
+      </c>
+      <c r="H3" t="n">
+        <v>26.26152842655193</v>
+      </c>
+      <c r="I3" t="n">
+        <v>10.27524601983741</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.5175595291957431</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.182483619818803</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.023392528237804</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.557447115290403</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.7793008699747366</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.003389454598402244</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4.004989864425667</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3.138450027714986</v>
+      </c>
+      <c r="R3" t="n">
+        <v>64.34214863069185</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.5624853349808941</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.9910567635523228</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.08023942777181295</v>
+      </c>
+      <c r="V3" t="n">
+        <v>-0.1539964378800733</v>
+      </c>
+      <c r="W3" t="n">
+        <v>33.31447490653681</v>
+      </c>
+      <c r="X3" t="n">
+        <v>20.21571276413315</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.003389454598402244</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>3.580839643528207</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>12.73683258412957</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
+      <c r="A4" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3.138450027714986</v>
+      </c>
+      <c r="D4" t="n">
+        <v>15.85977340595715</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4.510232918569504</v>
+      </c>
+      <c r="F4" t="n">
+        <v>12.40276189377752</v>
+      </c>
+      <c r="G4" t="n">
+        <v>32.77276821830417</v>
+      </c>
+      <c r="H4" t="n">
+        <v>26.19812726743467</v>
+      </c>
+      <c r="I4" t="n">
+        <v>10.57963081529517</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.5132641058702367</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.182483619818803</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.023392528237804</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.557447115290403</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.7793008699747366</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.003389454598402244</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4.004989864425667</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3.138450027714986</v>
+      </c>
+      <c r="R4" t="n">
+        <v>64.34214863069185</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.5624853349808941</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.9910567635523228</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.08023942777181295</v>
+      </c>
+      <c r="V4" t="n">
+        <v>-0.1539964378800733</v>
+      </c>
+      <c r="W4" t="n">
+        <v>33.55545854287731</v>
+      </c>
+      <c r="X4" t="n">
+        <v>20.37000632452665</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.003389454598402244</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>3.580839643528207</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>12.82352266007658</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
+      <c r="A5" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3.138450027714986</v>
+      </c>
+      <c r="D5" t="n">
+        <v>15.67720905642014</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4.384518194256122</v>
+      </c>
+      <c r="F5" t="n">
+        <v>12.22794562023811</v>
+      </c>
+      <c r="G5" t="n">
+        <v>32.28967287091438</v>
+      </c>
+      <c r="H5" t="n">
+        <v>26.32606871622871</v>
+      </c>
+      <c r="I5" t="n">
+        <v>9.968594019111332</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.5218549525212496</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.182483619818803</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.023392528237804</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.557447115290403</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.7793008699747366</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.003389454598402244</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4.004989864425667</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3.138450027714986</v>
+      </c>
+      <c r="R5" t="n">
+        <v>64.34214863069185</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.5624853349808941</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.9910567635523228</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.08023942777181295</v>
+      </c>
+      <c r="V5" t="n">
+        <v>-0.1539964378800733</v>
+      </c>
+      <c r="W5" t="n">
+        <v>33.07236319548751</v>
+      </c>
+      <c r="X5" t="n">
+        <v>20.06172725067626</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.003389454598402244</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>3.580839643528207</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>12.64870638653717</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
+      <c r="A6" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3.146089815196919</v>
+      </c>
+      <c r="D6" t="n">
+        <v>15.80673939976616</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4.458183563015977</v>
+      </c>
+      <c r="F6" t="n">
+        <v>12.13094165738392</v>
+      </c>
+      <c r="G6" t="n">
+        <v>32.39586462016606</v>
+      </c>
+      <c r="H6" t="n">
+        <v>26.07679944161909</v>
+      </c>
+      <c r="I6" t="n">
+        <v>10.48068023608661</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.5124921694390019</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.182483619818803</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2.023392528237804</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.557447115290403</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.9485978543564298</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.003389454598402244</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4.161615057539643</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3.146089815196919</v>
+      </c>
+      <c r="R6" t="n">
+        <v>64.49877382380583</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.6846808497559246</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.113252278327353</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.08023942777181295</v>
+      </c>
+      <c r="V6" t="n">
+        <v>-0.1265125758632158</v>
+      </c>
+      <c r="W6" t="n">
+        <v>33.34785192912089</v>
+      </c>
+      <c r="X6" t="n">
+        <v>20.26492296278214</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.003389454598402244</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>3.580839643528207</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>12.70832761679695</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
+      <c r="A7" s="23" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.187349485065147</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.965539761838173</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.682540000067226</v>
+      </c>
+      <c r="F7" t="n">
+        <v>12.1875788769972</v>
+      </c>
+      <c r="G7" t="n">
+        <v>19.8356586389026</v>
+      </c>
+      <c r="H7" t="n">
+        <v>30.37670931250068</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-6.536060809172412</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.414629939071844</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.182483619818803</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2.023392528237804</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.557447115290403</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.7793008699747366</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.003389454598402244</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4.004989864425667</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.187349485065147</v>
+      </c>
+      <c r="R7" t="n">
+        <v>24.34214863069185</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.5624853349808941</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.9910567635523228</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.08023942777181295</v>
+      </c>
+      <c r="V7" t="n">
+        <v>-0.1539964378800733</v>
+      </c>
+      <c r="W7" t="n">
+        <v>20.61834896347574</v>
+      </c>
+      <c r="X7" t="n">
+        <v>7.648079761905398</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.003389454598402244</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>3.580839643528207</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>12.60833964329626</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
+      <c r="A8" s="23" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3.138450027714986</v>
+      </c>
+      <c r="D8" t="n">
+        <v>15.76835520322696</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4.447357560906194</v>
+      </c>
+      <c r="F8" t="n">
+        <v>9.737902310695372</v>
+      </c>
+      <c r="G8" t="n">
+        <v>29.95361507482852</v>
+      </c>
+      <c r="H8" t="n">
+        <v>24.8246679574776</v>
+      </c>
+      <c r="I8" t="n">
+        <v>9.133936981776586</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.3969494114946789</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.182483619818803</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2.023392528237804</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.557447115290403</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.7793008699747366</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.003389454598402244</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4.004989864425667</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3.138450027714986</v>
+      </c>
+      <c r="R8" t="n">
+        <v>64.34214863069185</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.5624853349808941</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.9910567635523228</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.08023942777181295</v>
+      </c>
+      <c r="V8" t="n">
+        <v>-0.1539964378800733</v>
+      </c>
+      <c r="W8" t="n">
+        <v>30.73630539940166</v>
+      </c>
+      <c r="X8" t="n">
+        <v>20.21571276413315</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.003389454598402244</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>3.580839643528207</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>10.15866307699442</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
+      <c r="A9" s="23" t="n">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3.138450027714986</v>
+      </c>
+      <c r="D9" t="n">
+        <v>15.76835520322696</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4.447357560906194</v>
+      </c>
+      <c r="F9" t="n">
+        <v>12.31607181783052</v>
+      </c>
+      <c r="G9" t="n">
+        <v>32.53178458196367</v>
+      </c>
+      <c r="H9" t="n">
+        <v>26.26152842655193</v>
+      </c>
+      <c r="I9" t="n">
+        <v>10.27524601983741</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.5175595291957431</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.182483619818803</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2.023392528237804</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.557447115290403</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.7793008699747366</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.003389454598402244</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4.004989864425667</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3.138450027714986</v>
+      </c>
+      <c r="R9" t="n">
+        <v>64.34214863069185</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.5624853349808941</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.9910567635523228</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.08023942777181295</v>
+      </c>
+      <c r="V9" t="n">
+        <v>-0.1539964378800733</v>
+      </c>
+      <c r="W9" t="n">
+        <v>33.31447490653681</v>
+      </c>
+      <c r="X9" t="n">
+        <v>20.21571276413315</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.003389454598402244</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>3.580839643528207</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>12.73683258412957</v>
+      </c>
+    </row>
     <row r="16" spans="1:27">
       <c r="B16" s="23" t="s">
         <v>64</v>
@@ -2791,7 +3473,7 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C17" t="n">
         <v>3.152264696523027</v>
@@ -2874,7 +3556,7 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C18" t="n">
         <v>3.006958546929726</v>
@@ -2957,7 +3639,7 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C19" t="n">
         <v>3.152264696523027</v>
@@ -3040,7 +3722,7 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C20" t="n">
         <v>3.006958546929726</v>
@@ -3123,7 +3805,7 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C21" t="n">
         <v>3.172191220656396</v>
@@ -3206,7 +3888,7 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C22" t="n">
         <v>3.036848333129781</v>
@@ -3289,7 +3971,7 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C23" t="n">
         <v>3.172191220656396</v>
@@ -3372,7 +4054,7 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C24" t="n">
         <v>3.036848333129781</v>
@@ -3455,7 +4137,7 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C25" t="n">
         <v>3.316009615297966</v>
@@ -3538,7 +4220,7 @@
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C26" t="n">
         <v>3.252575925092134</v>
@@ -3621,7 +4303,7 @@
         <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C27" t="n">
         <v>3.316009615297966</v>
@@ -3704,7 +4386,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C28" t="n">
         <v>3.252575925092134</v>
@@ -3787,7 +4469,7 @@
         <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="C29" t="n">
         <v>3.35400058269364</v>
@@ -3870,7 +4552,7 @@
         <v>13</v>
       </c>
       <c r="B30" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C30" t="n">
         <v>3.309562376185647</v>
@@ -3953,7 +4635,7 @@
         <v>14</v>
       </c>
       <c r="B31" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C31" t="n">
         <v>3.35400058269364</v>
@@ -4036,7 +4718,7 @@
         <v>15</v>
       </c>
       <c r="B32" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C32" t="n">
         <v>3.309562376185647</v>
@@ -4119,7 +4801,7 @@
         <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C33" t="n">
         <v>3.141068539531296</v>
@@ -4202,7 +4884,7 @@
         <v>17</v>
       </c>
       <c r="B34" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="C34" t="n">
         <v>2.995762389937995</v>
@@ -4285,7 +4967,7 @@
         <v>18</v>
       </c>
       <c r="B35" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="C35" t="n">
         <v>3.141068539531296</v>
@@ -4368,7 +5050,7 @@
         <v>19</v>
       </c>
       <c r="B36" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="C36" t="n">
         <v>2.995762389937995</v>
@@ -4451,7 +5133,7 @@
         <v>20</v>
       </c>
       <c r="B37" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C37" t="n">
         <v>3.160995063664664</v>
@@ -4534,7 +5216,7 @@
         <v>21</v>
       </c>
       <c r="B38" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="C38" t="n">
         <v>3.025652176138049</v>
@@ -4617,7 +5299,7 @@
         <v>22</v>
       </c>
       <c r="B39" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C39" t="n">
         <v>3.160995063664664</v>
@@ -4700,7 +5382,7 @@
         <v>23</v>
       </c>
       <c r="B40" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C40" t="n">
         <v>3.025652176138049</v>
@@ -4783,7 +5465,7 @@
         <v>24</v>
       </c>
       <c r="B41" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C41" t="n">
         <v>3.304813458306234</v>
@@ -4866,7 +5548,7 @@
         <v>25</v>
       </c>
       <c r="B42" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C42" t="n">
         <v>3.241379768100403</v>
@@ -4949,7 +5631,7 @@
         <v>26</v>
       </c>
       <c r="B43" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C43" t="n">
         <v>3.304813458306234</v>
@@ -5032,7 +5714,7 @@
         <v>27</v>
       </c>
       <c r="B44" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C44" t="n">
         <v>3.241379768100403</v>
@@ -5115,7 +5797,7 @@
         <v>28</v>
       </c>
       <c r="B45" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C45" t="n">
         <v>3.342804425701908</v>
@@ -5198,7 +5880,7 @@
         <v>29</v>
       </c>
       <c r="B46" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C46" t="n">
         <v>3.298366219193916</v>
@@ -5281,7 +5963,7 @@
         <v>30</v>
       </c>
       <c r="B47" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C47" t="n">
         <v>3.342804425701908</v>
@@ -5364,7 +6046,7 @@
         <v>31</v>
       </c>
       <c r="B48" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C48" t="n">
         <v>3.298366219193916</v>
@@ -5447,7 +6129,7 @@
         <v>32</v>
       </c>
       <c r="B49" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C49" t="n">
         <v>3.162335863274322</v>
@@ -5530,7 +6212,7 @@
         <v>33</v>
       </c>
       <c r="B50" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C50" t="n">
         <v>3.017029713681021</v>
@@ -5613,7 +6295,7 @@
         <v>34</v>
       </c>
       <c r="B51" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="C51" t="n">
         <v>3.162335863274322</v>
@@ -5696,7 +6378,7 @@
         <v>35</v>
       </c>
       <c r="B52" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="C52" t="n">
         <v>3.017029713681021</v>
@@ -5779,7 +6461,7 @@
         <v>36</v>
       </c>
       <c r="B53" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="C53" t="n">
         <v>3.182262387407692</v>
@@ -5862,7 +6544,7 @@
         <v>37</v>
       </c>
       <c r="B54" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C54" t="n">
         <v>3.046919499881076</v>
@@ -5945,7 +6627,7 @@
         <v>38</v>
       </c>
       <c r="B55" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C55" t="n">
         <v>3.182262387407692</v>
@@ -6028,7 +6710,7 @@
         <v>39</v>
       </c>
       <c r="B56" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C56" t="n">
         <v>3.046919499881076</v>
@@ -6111,7 +6793,7 @@
         <v>40</v>
       </c>
       <c r="B57" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="C57" t="n">
         <v>3.326080782049261</v>
@@ -6194,7 +6876,7 @@
         <v>41</v>
       </c>
       <c r="B58" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="C58" t="n">
         <v>3.262647091843429</v>
@@ -6277,7 +6959,7 @@
         <v>42</v>
       </c>
       <c r="B59" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="C59" t="n">
         <v>3.326080782049261</v>
@@ -6360,7 +7042,7 @@
         <v>43</v>
       </c>
       <c r="B60" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C60" t="n">
         <v>3.262647091843429</v>
@@ -6443,7 +7125,7 @@
         <v>44</v>
       </c>
       <c r="B61" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C61" t="n">
         <v>3.364071749444935</v>
@@ -6526,7 +7208,7 @@
         <v>45</v>
       </c>
       <c r="B62" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C62" t="n">
         <v>3.319633542936942</v>
@@ -6609,7 +7291,7 @@
         <v>46</v>
       </c>
       <c r="B63" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C63" t="n">
         <v>3.364071749444935</v>
@@ -6692,7 +7374,7 @@
         <v>47</v>
       </c>
       <c r="B64" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C64" t="n">
         <v>3.319633542936942</v>
@@ -6775,7 +7457,7 @@
         <v>48</v>
       </c>
       <c r="B65" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C65" t="n">
         <v>3.147176464869589</v>
@@ -6858,7 +7540,7 @@
         <v>49</v>
       </c>
       <c r="B66" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C66" t="n">
         <v>3.001870315276288</v>
@@ -6941,7 +7623,7 @@
         <v>50</v>
       </c>
       <c r="B67" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C67" t="n">
         <v>3.147176464869589</v>
@@ -7024,7 +7706,7 @@
         <v>51</v>
       </c>
       <c r="B68" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="C68" t="n">
         <v>3.001870315276288</v>
@@ -7107,7 +7789,7 @@
         <v>52</v>
       </c>
       <c r="B69" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C69" t="n">
         <v>3.167102989002959</v>
@@ -7190,7 +7872,7 @@
         <v>53</v>
       </c>
       <c r="B70" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="C70" t="n">
         <v>3.031760101476342</v>
@@ -7273,7 +7955,7 @@
         <v>54</v>
       </c>
       <c r="B71" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="C71" t="n">
         <v>3.167102989002959</v>
@@ -7356,7 +8038,7 @@
         <v>55</v>
       </c>
       <c r="B72" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C72" t="n">
         <v>3.031760101476342</v>
@@ -7439,7 +8121,7 @@
         <v>56</v>
       </c>
       <c r="B73" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C73" t="n">
         <v>3.310921383644527</v>
@@ -7522,7 +8204,7 @@
         <v>57</v>
       </c>
       <c r="B74" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="C74" t="n">
         <v>3.247487693438695</v>
@@ -7605,7 +8287,7 @@
         <v>58</v>
       </c>
       <c r="B75" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="C75" t="n">
         <v>3.310921383644527</v>
@@ -7688,7 +8370,7 @@
         <v>59</v>
       </c>
       <c r="B76" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="C76" t="n">
         <v>3.247487693438695</v>
@@ -7771,7 +8453,7 @@
         <v>60</v>
       </c>
       <c r="B77" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C77" t="n">
         <v>3.348912351040202</v>
@@ -7854,7 +8536,7 @@
         <v>61</v>
       </c>
       <c r="B78" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="C78" t="n">
         <v>3.304474144532208</v>
@@ -7937,7 +8619,7 @@
         <v>62</v>
       </c>
       <c r="B79" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="C79" t="n">
         <v>3.348912351040202</v>
@@ -8020,7 +8702,7 @@
         <v>63</v>
       </c>
       <c r="B80" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C80" t="n">
         <v>3.304474144532208</v>
@@ -8103,7 +8785,7 @@
         <v>64</v>
       </c>
       <c r="B81" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="C81" t="n">
         <v>3.165976044027802</v>
@@ -8186,7 +8868,7 @@
         <v>65</v>
       </c>
       <c r="B82" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C82" t="n">
         <v>3.020669894434502</v>
@@ -8269,7 +8951,7 @@
         <v>66</v>
       </c>
       <c r="B83" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="C83" t="n">
         <v>3.165976044027802</v>
@@ -8352,7 +9034,7 @@
         <v>67</v>
       </c>
       <c r="B84" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C84" t="n">
         <v>3.020669894434502</v>
@@ -8435,7 +9117,7 @@
         <v>68</v>
       </c>
       <c r="B85" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="C85" t="n">
         <v>3.185902568161172</v>
@@ -8518,7 +9200,7 @@
         <v>69</v>
       </c>
       <c r="B86" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="C86" t="n">
         <v>3.050559680634557</v>
@@ -8601,7 +9283,7 @@
         <v>70</v>
       </c>
       <c r="B87" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="C87" t="n">
         <v>3.185902568161172</v>
@@ -8684,7 +9366,7 @@
         <v>71</v>
       </c>
       <c r="B88" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="C88" t="n">
         <v>3.050559680634557</v>
@@ -8767,7 +9449,7 @@
         <v>72</v>
       </c>
       <c r="B89" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="C89" t="n">
         <v>3.329720962802741</v>
@@ -8850,7 +9532,7 @@
         <v>73</v>
       </c>
       <c r="B90" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="C90" t="n">
         <v>3.26628727259691</v>
@@ -8933,7 +9615,7 @@
         <v>74</v>
       </c>
       <c r="B91" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C91" t="n">
         <v>3.329720962802741</v>
@@ -9016,7 +9698,7 @@
         <v>75</v>
       </c>
       <c r="B92" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C92" t="n">
         <v>3.26628727259691</v>
@@ -9099,7 +9781,7 @@
         <v>76</v>
       </c>
       <c r="B93" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="C93" t="n">
         <v>3.367711930198416</v>
@@ -9182,7 +9864,7 @@
         <v>77</v>
       </c>
       <c r="B94" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="C94" t="n">
         <v>3.323273723690423</v>
@@ -9265,7 +9947,7 @@
         <v>78</v>
       </c>
       <c r="B95" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C95" t="n">
         <v>3.367711930198416</v>
@@ -9348,7 +10030,7 @@
         <v>79</v>
       </c>
       <c r="B96" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="C96" t="n">
         <v>3.323273723690423</v>
@@ -9431,7 +10113,7 @@
         <v>80</v>
       </c>
       <c r="B97" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="C97" t="n">
         <v>3.149384148726803</v>
@@ -9514,7 +10196,7 @@
         <v>81</v>
       </c>
       <c r="B98" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="C98" t="n">
         <v>3.004077999133502</v>
@@ -9597,7 +10279,7 @@
         <v>82</v>
       </c>
       <c r="B99" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="C99" t="n">
         <v>3.149384148726803</v>
@@ -9680,7 +10362,7 @@
         <v>83</v>
       </c>
       <c r="B100" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="C100" t="n">
         <v>3.004077999133502</v>
@@ -9763,7 +10445,7 @@
         <v>84</v>
       </c>
       <c r="B101" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C101" t="n">
         <v>3.169310672860173</v>
@@ -9846,7 +10528,7 @@
         <v>85</v>
       </c>
       <c r="B102" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="C102" t="n">
         <v>3.033967785333556</v>
@@ -9929,7 +10611,7 @@
         <v>86</v>
       </c>
       <c r="B103" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="C103" t="n">
         <v>3.169310672860173</v>
@@ -10012,7 +10694,7 @@
         <v>87</v>
       </c>
       <c r="B104" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="C104" t="n">
         <v>3.033967785333556</v>
@@ -10095,7 +10777,7 @@
         <v>88</v>
       </c>
       <c r="B105" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="C105" t="n">
         <v>3.313129067501742</v>
@@ -10178,7 +10860,7 @@
         <v>89</v>
       </c>
       <c r="B106" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C106" t="n">
         <v>3.24969537729591</v>
@@ -10261,7 +10943,7 @@
         <v>90</v>
       </c>
       <c r="B107" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C107" t="n">
         <v>3.313129067501742</v>
@@ -10344,7 +11026,7 @@
         <v>91</v>
       </c>
       <c r="B108" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="C108" t="n">
         <v>3.24969537729591</v>
@@ -10427,7 +11109,7 @@
         <v>92</v>
       </c>
       <c r="B109" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C109" t="n">
         <v>3.351120034897416</v>
@@ -10510,7 +11192,7 @@
         <v>93</v>
       </c>
       <c r="B110" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="C110" t="n">
         <v>3.306681828389423</v>
@@ -10593,7 +11275,7 @@
         <v>94</v>
       </c>
       <c r="B111" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C111" t="n">
         <v>3.351120034897416</v>
@@ -10676,7 +11358,7 @@
         <v>95</v>
       </c>
       <c r="B112" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="C112" t="n">
         <v>3.306681828389423</v>
@@ -10759,7 +11441,7 @@
         <v>96</v>
       </c>
       <c r="B113" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="C113" t="n">
         <v>3.180900785117072</v>
@@ -10842,7 +11524,7 @@
         <v>97</v>
       </c>
       <c r="B114" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C114" t="n">
         <v>3.035594635523771</v>
@@ -10925,7 +11607,7 @@
         <v>98</v>
       </c>
       <c r="B115" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="C115" t="n">
         <v>3.180900785117072</v>
@@ -11008,7 +11690,7 @@
         <v>99</v>
       </c>
       <c r="B116" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="C116" t="n">
         <v>3.035594635523771</v>
@@ -11091,7 +11773,7 @@
         <v>100</v>
       </c>
       <c r="B117" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="C117" t="n">
         <v>3.200827309250441</v>
@@ -11174,7 +11856,7 @@
         <v>101</v>
       </c>
       <c r="B118" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="C118" t="n">
         <v>3.065484421723826</v>
@@ -11257,7 +11939,7 @@
         <v>102</v>
       </c>
       <c r="B119" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C119" t="n">
         <v>3.200827309250441</v>
@@ -11340,7 +12022,7 @@
         <v>103</v>
       </c>
       <c r="B120" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="C120" t="n">
         <v>3.065484421723826</v>
@@ -11423,7 +12105,7 @@
         <v>104</v>
       </c>
       <c r="B121" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="C121" t="n">
         <v>3.344645703892011</v>
@@ -11506,7 +12188,7 @@
         <v>105</v>
       </c>
       <c r="B122" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="C122" t="n">
         <v>3.281212013686179</v>
@@ -11589,7 +12271,7 @@
         <v>106</v>
       </c>
       <c r="B123" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="C123" t="n">
         <v>3.344645703892011</v>
@@ -11672,7 +12354,7 @@
         <v>107</v>
       </c>
       <c r="B124" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C124" t="n">
         <v>3.281212013686179</v>
@@ -11755,7 +12437,7 @@
         <v>108</v>
       </c>
       <c r="B125" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C125" t="n">
         <v>3.382636671287685</v>
@@ -11838,7 +12520,7 @@
         <v>109</v>
       </c>
       <c r="B126" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C126" t="n">
         <v>3.338198464779692</v>
@@ -11921,7 +12603,7 @@
         <v>110</v>
       </c>
       <c r="B127" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C127" t="n">
         <v>3.382636671287685</v>
@@ -12004,7 +12686,7 @@
         <v>111</v>
       </c>
       <c r="B128" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="C128" t="n">
         <v>3.338198464779692</v>
@@ -12087,7 +12769,7 @@
         <v>112</v>
       </c>
       <c r="B129" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="C129" t="n">
         <v>3.158435652541382</v>
@@ -12170,7 +12852,7 @@
         <v>113</v>
       </c>
       <c r="B130" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C130" t="n">
         <v>3.013129502948082</v>
@@ -12253,7 +12935,7 @@
         <v>114</v>
       </c>
       <c r="B131" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="C131" t="n">
         <v>3.158435652541382</v>
@@ -12336,7 +13018,7 @@
         <v>115</v>
       </c>
       <c r="B132" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="C132" t="n">
         <v>3.013129502948082</v>
@@ -12419,7 +13101,7 @@
         <v>116</v>
       </c>
       <c r="B133" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="C133" t="n">
         <v>3.178362176674752</v>
@@ -12502,7 +13184,7 @@
         <v>117</v>
       </c>
       <c r="B134" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="C134" t="n">
         <v>3.043019289148136</v>
@@ -12585,7 +13267,7 @@
         <v>118</v>
       </c>
       <c r="B135" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C135" t="n">
         <v>3.178362176674752</v>
@@ -12668,7 +13350,7 @@
         <v>119</v>
       </c>
       <c r="B136" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="C136" t="n">
         <v>3.043019289148136</v>
@@ -12751,7 +13433,7 @@
         <v>120</v>
       </c>
       <c r="B137" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="C137" t="n">
         <v>3.32218057131632</v>
@@ -12834,7 +13516,7 @@
         <v>121</v>
       </c>
       <c r="B138" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="C138" t="n">
         <v>3.258746881110489</v>
@@ -12917,7 +13599,7 @@
         <v>122</v>
       </c>
       <c r="B139" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="C139" t="n">
         <v>3.32218057131632</v>
@@ -13000,7 +13682,7 @@
         <v>123</v>
       </c>
       <c r="B140" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="C140" t="n">
         <v>3.258746881110489</v>
@@ -13083,7 +13765,7 @@
         <v>124</v>
       </c>
       <c r="B141" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="C141" t="n">
         <v>3.360171538711996</v>
@@ -13166,7 +13848,7 @@
         <v>125</v>
       </c>
       <c r="B142" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="C142" t="n">
         <v>3.315733332204002</v>
@@ -13249,7 +13931,7 @@
         <v>126</v>
       </c>
       <c r="B143" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="C143" t="n">
         <v>3.360171538711996</v>
@@ -13332,7 +14014,7 @@
         <v>127</v>
       </c>
       <c r="B144" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="C144" t="n">
         <v>3.315733332204002</v>
@@ -13415,7 +14097,7 @@
         <v>128</v>
       </c>
       <c r="B145" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="C145" t="n">
         <v>3.152264696523027</v>
@@ -13498,7 +14180,7 @@
         <v>129</v>
       </c>
       <c r="B146" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="C146" t="n">
         <v>3.006958546929726</v>
@@ -13581,7 +14263,7 @@
         <v>130</v>
       </c>
       <c r="B147" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="C147" t="n">
         <v>3.152264696523027</v>
@@ -13664,7 +14346,7 @@
         <v>131</v>
       </c>
       <c r="B148" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="C148" t="n">
         <v>3.006958546929726</v>
@@ -13747,7 +14429,7 @@
         <v>132</v>
       </c>
       <c r="B149" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="C149" t="n">
         <v>3.172191220656396</v>
@@ -13830,7 +14512,7 @@
         <v>133</v>
       </c>
       <c r="B150" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="C150" t="n">
         <v>3.036848333129781</v>
@@ -13913,7 +14595,7 @@
         <v>134</v>
       </c>
       <c r="B151" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="C151" t="n">
         <v>3.172191220656396</v>
@@ -13996,7 +14678,7 @@
         <v>135</v>
       </c>
       <c r="B152" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="C152" t="n">
         <v>3.036848333129781</v>
@@ -14079,7 +14761,7 @@
         <v>136</v>
       </c>
       <c r="B153" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="C153" t="n">
         <v>3.316009615297966</v>
@@ -14162,7 +14844,7 @@
         <v>137</v>
       </c>
       <c r="B154" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="C154" t="n">
         <v>3.252575925092134</v>
@@ -14245,7 +14927,7 @@
         <v>138</v>
       </c>
       <c r="B155" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="C155" t="n">
         <v>3.316009615297966</v>
@@ -14328,7 +15010,7 @@
         <v>139</v>
       </c>
       <c r="B156" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="C156" t="n">
         <v>3.252575925092134</v>
@@ -14411,7 +15093,7 @@
         <v>140</v>
       </c>
       <c r="B157" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="C157" t="n">
         <v>3.35400058269364</v>
@@ -14494,7 +15176,7 @@
         <v>141</v>
       </c>
       <c r="B158" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="C158" t="n">
         <v>3.309562376185647</v>
@@ -14577,7 +15259,7 @@
         <v>142</v>
       </c>
       <c r="B159" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="C159" t="n">
         <v>3.35400058269364</v>
@@ -14660,7 +15342,7 @@
         <v>143</v>
       </c>
       <c r="B160" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="C160" t="n">
         <v>3.309562376185647</v>
@@ -14743,7 +15425,7 @@
         <v>144</v>
       </c>
       <c r="B161" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="C161" t="n">
         <v>3.141068539531296</v>
@@ -14826,7 +15508,7 @@
         <v>145</v>
       </c>
       <c r="B162" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="C162" t="n">
         <v>2.995762389937995</v>
@@ -14909,7 +15591,7 @@
         <v>146</v>
       </c>
       <c r="B163" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="C163" t="n">
         <v>3.141068539531296</v>
@@ -14992,7 +15674,7 @@
         <v>147</v>
       </c>
       <c r="B164" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="C164" t="n">
         <v>2.995762389937995</v>
@@ -15075,7 +15757,7 @@
         <v>148</v>
       </c>
       <c r="B165" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="C165" t="n">
         <v>3.160995063664664</v>
@@ -15158,7 +15840,7 @@
         <v>149</v>
       </c>
       <c r="B166" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="C166" t="n">
         <v>3.025652176138049</v>
@@ -15241,7 +15923,7 @@
         <v>150</v>
       </c>
       <c r="B167" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="C167" t="n">
         <v>3.160995063664664</v>
@@ -15324,7 +16006,7 @@
         <v>151</v>
       </c>
       <c r="B168" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="C168" t="n">
         <v>3.025652176138049</v>
@@ -15407,7 +16089,7 @@
         <v>152</v>
       </c>
       <c r="B169" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="C169" t="n">
         <v>3.304813458306234</v>
@@ -15490,7 +16172,7 @@
         <v>153</v>
       </c>
       <c r="B170" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="C170" t="n">
         <v>3.241379768100403</v>
@@ -15573,7 +16255,7 @@
         <v>154</v>
       </c>
       <c r="B171" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C171" t="n">
         <v>3.304813458306234</v>
@@ -15656,7 +16338,7 @@
         <v>155</v>
       </c>
       <c r="B172" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="C172" t="n">
         <v>3.241379768100403</v>
@@ -15739,7 +16421,7 @@
         <v>156</v>
       </c>
       <c r="B173" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="C173" t="n">
         <v>3.342804425701908</v>
@@ -15822,7 +16504,7 @@
         <v>157</v>
       </c>
       <c r="B174" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="C174" t="n">
         <v>3.298366219193916</v>
@@ -15905,7 +16587,7 @@
         <v>158</v>
       </c>
       <c r="B175" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="C175" t="n">
         <v>3.342804425701908</v>
@@ -15988,7 +16670,7 @@
         <v>159</v>
       </c>
       <c r="B176" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="C176" t="n">
         <v>3.298366219193916</v>
@@ -16071,7 +16753,7 @@
         <v>160</v>
       </c>
       <c r="B177" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="C177" t="n">
         <v>3.162335863274322</v>
@@ -16154,7 +16836,7 @@
         <v>161</v>
       </c>
       <c r="B178" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="C178" t="n">
         <v>3.017029713681021</v>
@@ -16237,7 +16919,7 @@
         <v>162</v>
       </c>
       <c r="B179" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="C179" t="n">
         <v>3.162335863274322</v>
@@ -16320,7 +17002,7 @@
         <v>163</v>
       </c>
       <c r="B180" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="C180" t="n">
         <v>3.017029713681021</v>
@@ -16403,7 +17085,7 @@
         <v>164</v>
       </c>
       <c r="B181" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="C181" t="n">
         <v>3.182262387407692</v>
@@ -16486,7 +17168,7 @@
         <v>165</v>
       </c>
       <c r="B182" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="C182" t="n">
         <v>3.046919499881076</v>
@@ -16569,7 +17251,7 @@
         <v>166</v>
       </c>
       <c r="B183" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="C183" t="n">
         <v>3.182262387407692</v>
@@ -16652,7 +17334,7 @@
         <v>167</v>
       </c>
       <c r="B184" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="C184" t="n">
         <v>3.046919499881076</v>
@@ -16735,7 +17417,7 @@
         <v>168</v>
       </c>
       <c r="B185" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="C185" t="n">
         <v>3.326080782049261</v>
@@ -16818,7 +17500,7 @@
         <v>169</v>
       </c>
       <c r="B186" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="C186" t="n">
         <v>3.262647091843429</v>
@@ -16901,7 +17583,7 @@
         <v>170</v>
       </c>
       <c r="B187" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="C187" t="n">
         <v>3.326080782049261</v>
@@ -16984,7 +17666,7 @@
         <v>171</v>
       </c>
       <c r="B188" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="C188" t="n">
         <v>3.262647091843429</v>
@@ -17067,7 +17749,7 @@
         <v>172</v>
       </c>
       <c r="B189" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="C189" t="n">
         <v>3.364071749444935</v>
@@ -17150,7 +17832,7 @@
         <v>173</v>
       </c>
       <c r="B190" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="C190" t="n">
         <v>3.319633542936942</v>
@@ -17233,7 +17915,7 @@
         <v>174</v>
       </c>
       <c r="B191" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="C191" t="n">
         <v>3.364071749444935</v>
@@ -17316,7 +17998,7 @@
         <v>175</v>
       </c>
       <c r="B192" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="C192" t="n">
         <v>3.319633542936942</v>
@@ -17399,7 +18081,7 @@
         <v>176</v>
       </c>
       <c r="B193" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="C193" t="n">
         <v>3.147176464869589</v>
@@ -17482,7 +18164,7 @@
         <v>177</v>
       </c>
       <c r="B194" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="C194" t="n">
         <v>3.001870315276288</v>
@@ -17565,7 +18247,7 @@
         <v>178</v>
       </c>
       <c r="B195" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="C195" t="n">
         <v>3.147176464869589</v>
@@ -17648,7 +18330,7 @@
         <v>179</v>
       </c>
       <c r="B196" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="C196" t="n">
         <v>3.001870315276288</v>
@@ -17731,7 +18413,7 @@
         <v>180</v>
       </c>
       <c r="B197" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="C197" t="n">
         <v>3.167102989002959</v>
@@ -17814,7 +18496,7 @@
         <v>181</v>
       </c>
       <c r="B198" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="C198" t="n">
         <v>3.031760101476342</v>
@@ -17897,7 +18579,7 @@
         <v>182</v>
       </c>
       <c r="B199" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="C199" t="n">
         <v>3.167102989002959</v>
@@ -17980,7 +18662,7 @@
         <v>183</v>
       </c>
       <c r="B200" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="C200" t="n">
         <v>3.031760101476342</v>
@@ -18063,7 +18745,7 @@
         <v>184</v>
       </c>
       <c r="B201" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="C201" t="n">
         <v>3.310921383644527</v>
@@ -18146,7 +18828,7 @@
         <v>185</v>
       </c>
       <c r="B202" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C202" t="n">
         <v>3.247487693438695</v>
@@ -18229,7 +18911,7 @@
         <v>186</v>
       </c>
       <c r="B203" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="C203" t="n">
         <v>3.310921383644527</v>
@@ -18312,7 +18994,7 @@
         <v>187</v>
       </c>
       <c r="B204" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="C204" t="n">
         <v>3.247487693438695</v>
@@ -18395,7 +19077,7 @@
         <v>188</v>
       </c>
       <c r="B205" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="C205" t="n">
         <v>3.348912351040202</v>
@@ -18478,7 +19160,7 @@
         <v>189</v>
       </c>
       <c r="B206" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="C206" t="n">
         <v>3.304474144532208</v>
@@ -18561,7 +19243,7 @@
         <v>190</v>
       </c>
       <c r="B207" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="C207" t="n">
         <v>3.348912351040202</v>
@@ -18644,7 +19326,7 @@
         <v>191</v>
       </c>
       <c r="B208" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="C208" t="n">
         <v>3.304474144532208</v>
@@ -18727,7 +19409,7 @@
         <v>192</v>
       </c>
       <c r="B209" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="C209" t="n">
         <v>3.165976044027802</v>
@@ -18810,7 +19492,7 @@
         <v>193</v>
       </c>
       <c r="B210" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="C210" t="n">
         <v>3.020669894434502</v>
@@ -18893,7 +19575,7 @@
         <v>194</v>
       </c>
       <c r="B211" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="C211" t="n">
         <v>3.165976044027802</v>
@@ -18976,7 +19658,7 @@
         <v>195</v>
       </c>
       <c r="B212" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="C212" t="n">
         <v>3.020669894434502</v>
@@ -19059,7 +19741,7 @@
         <v>196</v>
       </c>
       <c r="B213" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="C213" t="n">
         <v>3.185902568161172</v>
@@ -19142,7 +19824,7 @@
         <v>197</v>
       </c>
       <c r="B214" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="C214" t="n">
         <v>3.050559680634557</v>
@@ -19225,7 +19907,7 @@
         <v>198</v>
       </c>
       <c r="B215" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C215" t="n">
         <v>3.185902568161172</v>
@@ -19308,7 +19990,7 @@
         <v>199</v>
       </c>
       <c r="B216" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="C216" t="n">
         <v>3.050559680634557</v>
@@ -19391,7 +20073,7 @@
         <v>200</v>
       </c>
       <c r="B217" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="C217" t="n">
         <v>3.329720962802741</v>
@@ -19474,7 +20156,7 @@
         <v>201</v>
       </c>
       <c r="B218" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="C218" t="n">
         <v>3.26628727259691</v>
@@ -19557,7 +20239,7 @@
         <v>202</v>
       </c>
       <c r="B219" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="C219" t="n">
         <v>3.329720962802741</v>
@@ -19640,7 +20322,7 @@
         <v>203</v>
       </c>
       <c r="B220" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="C220" t="n">
         <v>3.26628727259691</v>
@@ -19723,7 +20405,7 @@
         <v>204</v>
       </c>
       <c r="B221" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C221" t="n">
         <v>3.367711930198416</v>
@@ -19806,7 +20488,7 @@
         <v>205</v>
       </c>
       <c r="B222" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="C222" t="n">
         <v>3.323273723690423</v>
@@ -19889,7 +20571,7 @@
         <v>206</v>
       </c>
       <c r="B223" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="C223" t="n">
         <v>3.367711930198416</v>
@@ -19972,7 +20654,7 @@
         <v>207</v>
       </c>
       <c r="B224" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="C224" t="n">
         <v>3.323273723690423</v>
@@ -20055,7 +20737,7 @@
         <v>208</v>
       </c>
       <c r="B225" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="C225" t="n">
         <v>3.149384148726803</v>
@@ -20138,7 +20820,7 @@
         <v>209</v>
       </c>
       <c r="B226" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="C226" t="n">
         <v>3.004077999133502</v>
@@ -20221,7 +20903,7 @@
         <v>210</v>
       </c>
       <c r="B227" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="C227" t="n">
         <v>3.149384148726803</v>
@@ -20304,7 +20986,7 @@
         <v>211</v>
       </c>
       <c r="B228" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="C228" t="n">
         <v>3.004077999133502</v>
@@ -20387,7 +21069,7 @@
         <v>212</v>
       </c>
       <c r="B229" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="C229" t="n">
         <v>3.169310672860173</v>
@@ -20470,7 +21152,7 @@
         <v>213</v>
       </c>
       <c r="B230" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="C230" t="n">
         <v>3.033967785333556</v>
@@ -20553,7 +21235,7 @@
         <v>214</v>
       </c>
       <c r="B231" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="C231" t="n">
         <v>3.169310672860173</v>
@@ -20636,7 +21318,7 @@
         <v>215</v>
       </c>
       <c r="B232" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="C232" t="n">
         <v>3.033967785333556</v>
@@ -20719,7 +21401,7 @@
         <v>216</v>
       </c>
       <c r="B233" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="C233" t="n">
         <v>3.313129067501742</v>
@@ -20802,7 +21484,7 @@
         <v>217</v>
       </c>
       <c r="B234" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="C234" t="n">
         <v>3.24969537729591</v>
@@ -20885,7 +21567,7 @@
         <v>218</v>
       </c>
       <c r="B235" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="C235" t="n">
         <v>3.313129067501742</v>
@@ -20968,7 +21650,7 @@
         <v>219</v>
       </c>
       <c r="B236" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="C236" t="n">
         <v>3.24969537729591</v>
@@ -21051,7 +21733,7 @@
         <v>220</v>
       </c>
       <c r="B237" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="C237" t="n">
         <v>3.351120034897416</v>
@@ -21134,7 +21816,7 @@
         <v>221</v>
       </c>
       <c r="B238" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="C238" t="n">
         <v>3.306681828389423</v>
@@ -21217,7 +21899,7 @@
         <v>222</v>
       </c>
       <c r="B239" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="C239" t="n">
         <v>3.351120034897416</v>
@@ -21300,7 +21982,7 @@
         <v>223</v>
       </c>
       <c r="B240" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="C240" t="n">
         <v>3.306681828389423</v>
@@ -21383,7 +22065,7 @@
         <v>224</v>
       </c>
       <c r="B241" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="C241" t="n">
         <v>3.180900785117072</v>
@@ -21466,7 +22148,7 @@
         <v>225</v>
       </c>
       <c r="B242" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="C242" t="n">
         <v>3.035594635523771</v>
@@ -21549,7 +22231,7 @@
         <v>226</v>
       </c>
       <c r="B243" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="C243" t="n">
         <v>3.180900785117072</v>
@@ -21632,7 +22314,7 @@
         <v>227</v>
       </c>
       <c r="B244" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="C244" t="n">
         <v>3.035594635523771</v>
@@ -21715,7 +22397,7 @@
         <v>228</v>
       </c>
       <c r="B245" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="C245" t="n">
         <v>3.200827309250441</v>
@@ -21798,7 +22480,7 @@
         <v>229</v>
       </c>
       <c r="B246" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="C246" t="n">
         <v>3.065484421723826</v>
@@ -21881,7 +22563,7 @@
         <v>230</v>
       </c>
       <c r="B247" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="C247" t="n">
         <v>3.200827309250441</v>
@@ -21964,7 +22646,7 @@
         <v>231</v>
       </c>
       <c r="B248" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="C248" t="n">
         <v>3.065484421723826</v>
@@ -22047,7 +22729,7 @@
         <v>232</v>
       </c>
       <c r="B249" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="C249" t="n">
         <v>3.344645703892011</v>
@@ -22130,7 +22812,7 @@
         <v>233</v>
       </c>
       <c r="B250" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="C250" t="n">
         <v>3.281212013686179</v>
@@ -22213,7 +22895,7 @@
         <v>234</v>
       </c>
       <c r="B251" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="C251" t="n">
         <v>3.344645703892011</v>
@@ -22296,7 +22978,7 @@
         <v>235</v>
       </c>
       <c r="B252" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="C252" t="n">
         <v>3.281212013686179</v>
@@ -22379,7 +23061,7 @@
         <v>236</v>
       </c>
       <c r="B253" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="C253" t="n">
         <v>3.382636671287685</v>
@@ -22462,7 +23144,7 @@
         <v>237</v>
       </c>
       <c r="B254" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="C254" t="n">
         <v>3.338198464779692</v>
@@ -22545,7 +23227,7 @@
         <v>238</v>
       </c>
       <c r="B255" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="C255" t="n">
         <v>3.382636671287685</v>
@@ -22628,7 +23310,7 @@
         <v>239</v>
       </c>
       <c r="B256" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="C256" t="n">
         <v>3.338198464779692</v>
@@ -22711,7 +23393,7 @@
         <v>240</v>
       </c>
       <c r="B257" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="C257" t="n">
         <v>3.158435652541382</v>
@@ -22794,7 +23476,7 @@
         <v>241</v>
       </c>
       <c r="B258" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="C258" t="n">
         <v>3.013129502948082</v>
@@ -22877,7 +23559,7 @@
         <v>242</v>
       </c>
       <c r="B259" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="C259" t="n">
         <v>3.158435652541382</v>
@@ -22960,7 +23642,7 @@
         <v>243</v>
       </c>
       <c r="B260" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="C260" t="n">
         <v>3.013129502948082</v>
@@ -23043,7 +23725,7 @@
         <v>244</v>
       </c>
       <c r="B261" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="C261" t="n">
         <v>3.178362176674752</v>
@@ -23126,7 +23808,7 @@
         <v>245</v>
       </c>
       <c r="B262" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="C262" t="n">
         <v>3.043019289148136</v>
@@ -23209,7 +23891,7 @@
         <v>246</v>
       </c>
       <c r="B263" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="C263" t="n">
         <v>3.178362176674752</v>
@@ -23292,7 +23974,7 @@
         <v>247</v>
       </c>
       <c r="B264" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="C264" t="n">
         <v>3.043019289148136</v>
@@ -23375,7 +24057,7 @@
         <v>248</v>
       </c>
       <c r="B265" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="C265" t="n">
         <v>3.32218057131632</v>
@@ -23458,7 +24140,7 @@
         <v>249</v>
       </c>
       <c r="B266" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="C266" t="n">
         <v>3.258746881110489</v>
@@ -23541,7 +24223,7 @@
         <v>250</v>
       </c>
       <c r="B267" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="C267" t="n">
         <v>3.32218057131632</v>
@@ -23624,7 +24306,7 @@
         <v>251</v>
       </c>
       <c r="B268" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="C268" t="n">
         <v>3.258746881110489</v>
@@ -23707,7 +24389,7 @@
         <v>252</v>
       </c>
       <c r="B269" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="C269" t="n">
         <v>3.360171538711996</v>
@@ -23790,7 +24472,7 @@
         <v>253</v>
       </c>
       <c r="B270" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="C270" t="n">
         <v>3.315733332204002</v>
@@ -23873,7 +24555,7 @@
         <v>254</v>
       </c>
       <c r="B271" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C271" t="n">
         <v>3.360171538711996</v>
@@ -23956,7 +24638,7 @@
         <v>255</v>
       </c>
       <c r="B272" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="C272" t="n">
         <v>3.315733332204002</v>
